--- a/medicine/Handicap/Athétose/Athétose.xlsx
+++ b/medicine/Handicap/Athétose/Athétose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ath%C3%A9tose</t>
+          <t>Athétose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'athétose est un mouvement involontaire, incontrôlable, incoordonné (muscles agonistes et antagonistes), lent et sinueux (reptatoire, c'est-à-dire ressemblant au mouvement d'un reptile) des membres, surtout du tronc et du visage. Elle survient à la suite d'une pathologie du striatum ou trouve son origine dans un syndrome toxique comme le syndrome anticholinergique.
 Ce symptôme peut être également dû à un ictère nucléaire.
 L'athétose entraîne une hypermobilité et donc une incapacité de réaliser un repos musculaire autrement que pendant le sommeil, ainsi que des diarrhées.
-Maladie de Parkinson, la prise de médicaments dopaminergiques diminuant les symptômes de la maladie peut induire avec le temps des mouvements choréo-athétosiques[1],[2]
+Maladie de Parkinson, la prise de médicaments dopaminergiques diminuant les symptômes de la maladie peut induire avec le temps des mouvements choréo-athétosiques,
 La choréo-athétose combine l'athétose avec la chorée.
 </t>
         </is>
